--- a/Results/低资源微调/spider-llama3B/20.xlsx
+++ b/Results/低资源微调/spider-llama3B/20.xlsx
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.875</v>
+        <v>0.879</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.713</v>
+        <v>0.731</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.523</v>
+        <v>0.575</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.398</v>
+        <v>0.331</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.669</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
@@ -556,13 +556,13 @@
         <v>0.592</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.379</v>
+        <v>0.466</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.337</v>
+        <v>0.307</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.954</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.851</v>
+        <v>0.877</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.964</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.829</v>
+        <v>0.819</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.89</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1">
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.975</v>
+        <v>0.967</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.886</v>
+        <v>0.899</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.964</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.837</v>
+        <v>0.819</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.912</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1">
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.88</v>
+        <v>0.883</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.636</v>
+        <v>0.626</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.507</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.571</v>
+        <v>0.517</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.889</v>
+        <v>0.892</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.642</v>
+        <v>0.631</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.589</v>
+        <v>0.675</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.802</v>
+        <v>0.824</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.806</v>
+        <v>0.833</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.79</v>
+        <v>0.828</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1">
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.842</v>
+        <v>0.8</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.748</v>
+        <v>0.765</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.778</v>
+        <v>0.833</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.759</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1">
@@ -719,16 +719,16 @@
         <v>0.909</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.903</v>
+        <v>0.887</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.805</v>
+        <v>0.854</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.828</v>
+        <v>0.897</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.857</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
@@ -744,13 +744,13 @@
         <v>0.982</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.953</v>
+        <v>0.965</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.896</v>
+        <v>0.895</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.968</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1">
@@ -766,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.424</v>
+        <v>0.667</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.48</v>
+        <v>0.346</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.413</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1">
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.946</v>
+        <v>0.948</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.884</v>
+        <v>0.888</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.741</v>
+        <v>0.803</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.764</v>
+        <v>0.759</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.851</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.927</v>
+        <v>0.931</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.771</v>
+        <v>0.8</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.753</v>
+        <v>0.77</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.614</v>
+        <v>0.572</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1">
@@ -838,19 +838,19 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.948</v>
+        <v>0.956</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.803</v>
+        <v>0.821</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.753</v>
+        <v>0.77</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.62</v>
+        <v>0.572</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1">
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.88</v>
+        <v>0.907</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.654</v>
+        <v>0.643</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.394</v>
+        <v>0.511</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0.592</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1">
@@ -882,19 +882,19 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.889</v>
+        <v>0.917</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.659</v>
+        <v>0.648</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.457</v>
+        <v>0.574</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.372</v>
+        <v>0.383</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.615</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1">
@@ -907,16 +907,16 @@
         <v>0.85</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.669</v>
+        <v>0.737</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.744</v>
+        <v>0.769</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.62</v>
+        <v>0.608</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.679</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1">
@@ -929,16 +929,16 @@
         <v>0.8</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.624</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0.718</v>
+        <v>0.769</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.582</v>
+        <v>0.544</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>0.638</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1">
@@ -951,13 +951,13 @@
         <v>0.909</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.747</v>
+        <v>0.733</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.6</v>
+        <v>0.636</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.671</v>
+        <v>0.658</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>0.701</v>
@@ -973,13 +973,13 @@
         <v>0.996</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.97</v>
+        <v>0.976</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.974</v>
+        <v>0.96</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>0.986</v>
@@ -998,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>0.333</v>
+        <v>0.429</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.353</v>
+        <v>0.265</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>0.342</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1">
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.973</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.575</v>
+        <v>0.632</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>0.738</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1">
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.837</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>0.837</v>
+        <v>0.856</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0.706</v>
+        <v>0.674</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>0.832</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="31" ht="17" customHeight="1">
@@ -1073,16 +1073,16 @@
         <v>0.961</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.842</v>
+        <v>0.858</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>0.837</v>
+        <v>0.856</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>0.713</v>
+        <v>0.674</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>0.852</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="32" ht="17" customHeight="1">
@@ -1092,19 +1092,19 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.88</v>
+        <v>0.895</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.645</v>
+        <v>0.634</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.443</v>
+        <v>0.552</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.427</v>
+        <v>0.403</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>0.627</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="33" ht="17" customHeight="1">
@@ -1114,19 +1114,19 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.889</v>
+        <v>0.904</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.515</v>
+        <v>0.621</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>0.652</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="34" ht="17" customHeight="1">
@@ -1136,19 +1136,19 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.872</v>
+        <v>0.85</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.73</v>
+        <v>0.778</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.773</v>
+        <v>0.8</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.695</v>
+        <v>0.701</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>0.737</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1">
@@ -1158,19 +1158,19 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.821</v>
+        <v>0.8</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.68</v>
+        <v>0.722</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.747</v>
+        <v>0.8</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>0.652</v>
+        <v>0.628</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="36" ht="17" customHeight="1">
@@ -1183,16 +1183,16 @@
         <v>0.909</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.729</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.741</v>
+        <v>0.759</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>0.771</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="37" ht="17" customHeight="1">
@@ -1205,16 +1205,16 @@
         <v>0.998</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.986</v>
+        <v>0.988</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.961</v>
+        <v>0.97</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.927</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0.977</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="1">
@@ -1230,13 +1230,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.373</v>
+        <v>0.522</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.407</v>
+        <v>0.3</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>0.374</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1">
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.961</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.845</v>
+        <v>0.853</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.647</v>
+        <v>0.707</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.651</v>
+        <v>0.624</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0.791</v>
+        <v>0.805</v>
       </c>
     </row>
   </sheetData>
